--- a/5/멜론 실시간 노래 순위.xlsx
+++ b/5/멜론 실시간 노래 순위.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>앨범명앨범</t>
+          <t>앨범명</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>119,450</t>
+          <t>122,422</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76,873</t>
+          <t>81,977</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>81,996</t>
+          <t>84,551</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/34/298/11034298_20220822101843_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>그때 그 순간 그대로 (그그그)</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WSG워너비 (가야G)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WSG워너비 1집</t>
+          <t>After LIKE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>104,275</t>
+          <t>48,088</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/23/224/11023224_20220804182919_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FOREVER 1</t>
+          <t>그때 그 순간 그대로 (그그그)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>소녀시대 (GIRLS' GENERATION)</t>
+          <t>WSG워너비 (가야G)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FOREVER 1 - The 7th Album</t>
+          <t>WSG워너비 1집</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59,083</t>
+          <t>104,712</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/09/179/10909179_20220405103521_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/23/224/11023224_20220804182919_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>FOREVER 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>소녀시대 (GIRLS' GENERATION)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>FOREVER 1 - The 7th Album</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>183,822</t>
+          <t>62,038</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/09/179/10909179_20220405103521_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>보고싶었어</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WSG워너비 (4FIRE)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WSG워너비 1집</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>102,939</t>
+          <t>184,566</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/04/992/11004992_20220722175827_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SNEAKERS</t>
+          <t>보고싶었어</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITZY (있지)</t>
+          <t>WSG워너비 (4FIRE)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CHECKMATE</t>
+          <t>WSG워너비 1집</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>56,676</t>
+          <t>103,361</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/90/161/10990161_20220623203136_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/04/992/11004992_20220722175827_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POP!</t>
+          <t>SNEAKERS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>나연 (TWICE)</t>
+          <t>ITZY (있지)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IM NAYEON</t>
+          <t>CHECKMATE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>77,104</t>
+          <t>57,285</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>44,772</t>
+          <t>46,198</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/90/384/10890384_20220314111504_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/90/161/10990161_20220623203136_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TOMBOY</t>
+          <t>POP!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>나연 (TWICE)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I NEVER DIE</t>
+          <t>IM NAYEON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>209,224</t>
+          <t>77,401</t>
         </is>
       </c>
     </row>
@@ -825,27 +825,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/25/762/10925762_20220419152007_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/90/384/10890384_20220314111504_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>정이라고 하자 (Feat. 10CM)</t>
+          <t>TOMBOY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BIG Naughty (서동현)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>정이라고 하자</t>
+          <t>I NEVER DIE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>169,685</t>
+          <t>209,411</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/29/486/10929486_20220422151852_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/25/762/10925762_20220419152007_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>나의 X에게</t>
+          <t>정이라고 하자 (Feat. 10CM)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>BIG Naughty (서동현)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>나의 X에게</t>
+          <t>정이라고 하자</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>114,001</t>
+          <t>170,042</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>73,833</t>
+          <t>74,591</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/71/162/10871162_20220217162422_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/29/486/10929486_20220422151852_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>나의 X에게</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+          <t>나의 X에게</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>152,999</t>
+          <t>114,328</t>
         </is>
       </c>
     </row>
@@ -953,27 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/37/474/10937474_20220428225312_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/71/162/10871162_20220217162422_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>That That (prod. &amp; feat. SUGA of BTS)</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>싸이 (PSY)</t>
+          <t>멜로망스</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>싸다9</t>
+          <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>118,171</t>
+          <t>153,175</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/72/706/10972706_20220708111110_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/37/474/10937474_20220428225312_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Girls</t>
+          <t>That That (prod. &amp; feat. SUGA of BTS)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>싸이 (PSY)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Girls - The 2nd Mini Album</t>
+          <t>싸다9</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>55,447</t>
+          <t>118,266</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/26/502/10926502_20220420071020_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/72/706/10972706_20220708111110_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Love story</t>
+          <t>Girls</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Girls - The 2nd Mini Album</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>81,861</t>
+          <t>55,729</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/34/298/11034298_20220822101843_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/72/706/10972706_20220708111110_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>도깨비불 (Illusion)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>Girls - The 2nd Mini Album</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>30,874</t>
+          <t>59,362</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/72/706/10972706_20220708111110_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/97/407/10897407_20220323150744_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>도깨비불 (Illusion)</t>
+          <t>내가 아니라도</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>주호</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Girls - The 2nd Mini Album</t>
+          <t>내가 아니라도</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>58,897</t>
+          <t>60,225</t>
         </is>
       </c>
     </row>
@@ -1113,27 +1113,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/97/407/10897407_20220323150744_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/26/502/10926502_20220420071020_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>내가 아니라도</t>
+          <t>Love story</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>주호</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>내가 아니라도</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>59,940</t>
+          <t>82,208</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>68,892</t>
+          <t>69,120</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>109,285</t>
+          <t>109,494</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>172,267</t>
+          <t>172,365</t>
         </is>
       </c>
     </row>
@@ -1241,27 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/08/834/10908834_20220404174407_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/98/794/10798794_20211201113915_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>ELEVEN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BIGBANG (빅뱅)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>ELEVEN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>281,335</t>
+          <t>148,426</t>
         </is>
       </c>
     </row>
@@ -1273,27 +1273,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/98/794/10798794_20211201113915_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/08/834/10908834_20220404174407_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ELEVEN</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELEVEN</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>147,926</t>
+          <t>281,405</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>140,583</t>
+          <t>140,693</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>27,814</t>
+          <t>28,165</t>
         </is>
       </c>
     </row>
@@ -1369,27 +1369,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/10/525/10610525_20210518143433_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/44/485/10844485_20220407163235_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>That's Hilarious</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+          <t>That's Hilarious</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>147,189</t>
+          <t>98,668</t>
         </is>
       </c>
     </row>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/44/485/10844485_20220407163235_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/10/525/10610525_20210518143433_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>That's Hilarious</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>경서예지</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>That's Hilarious</t>
+          <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>98,147</t>
+          <t>147,313</t>
         </is>
       </c>
     </row>
@@ -1433,27 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/022/32/505/2232505_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>별에서 온 그대 OST Part.7</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>74,092</t>
+          <t>228,204</t>
         </is>
       </c>
     </row>
@@ -1465,27 +1465,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/93/611/10993611_20220629102946_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>열이올라요 (Heart Burn)</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>선미</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>열이올라요 (Heart Burn)</t>
+          <t>IM HERO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>31,586</t>
+          <t>74,174</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>47,725</t>
+          <t>48,345</t>
         </is>
       </c>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/31/803/11031803_20220817140718_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/93/611/10993611_20220629102946_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>잠수이별 (Prod. 코드 쿤스트)</t>
+          <t>열이올라요 (Heart Burn)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>우원재</t>
+          <t>선미</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>잠수이별</t>
+          <t>열이올라요 (Heart Burn)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>20,515</t>
+          <t>31,782</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/32/505/2232505_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/46/395/10646395_20210707141710_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>STAY</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>The Kid LAROI</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>별에서 온 그대 OST Part.7</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>228,009</t>
+          <t>232,143</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/94/554/10894554_20220321100622_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/17/954/11017954_20220729152931_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Feel My Rhythm</t>
+          <t>새벽에 걸려온 너의 전화는</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Red Velvet (레드벨벳)</t>
+          <t>한동근</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
+          <t>미련을 말하는</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>138,038</t>
+          <t>17,689</t>
         </is>
       </c>
     </row>
@@ -1625,27 +1625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/17/954/11017954_20220729152931_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/31/803/11031803_20220817140718_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>새벽에 걸려온 너의 전화는</t>
+          <t>잠수이별 (Prod. 코드 쿤스트)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>한동근</t>
+          <t>우원재</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>미련을 말하는</t>
+          <t>잠수이별</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17,195</t>
+          <t>21,403</t>
         </is>
       </c>
     </row>
@@ -1657,27 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/07/796/10607796_20210513201807_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/94/554/10894554_20220321100622_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>신호등</t>
+          <t>Feel My Rhythm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>Red Velvet (레드벨벳)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>신호등</t>
+          <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>288,340</t>
+          <t>138,122</t>
         </is>
       </c>
     </row>
@@ -1689,27 +1689,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/46/395/10646395_20210707141710_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/07/796/10607796_20210513201807_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STAY</t>
+          <t>신호등</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The Kid LAROI</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>신호등</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>232,047</t>
+          <t>288,334</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>21,347</t>
+          <t>22,201</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>71,441</t>
+          <t>71,564</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>20,993</t>
+          <t>21,187</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>121,869</t>
+          <t>121,919</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>123,825</t>
+          <t>123,935</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>43,599</t>
+          <t>43,759</t>
         </is>
       </c>
     </row>
@@ -1913,27 +1913,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/90/384/10890384_20220314111504_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/80/544/10880544_20220225141002_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MY BAG</t>
+          <t>듣고 싶을까</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>MSG워너비(M.O.M)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>I NEVER DIE</t>
+          <t>듣고 싶을까</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>73,441</t>
+          <t>81,406</t>
         </is>
       </c>
     </row>
@@ -1945,27 +1945,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/80/544/10880544_20220225141002_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/90/384/10890384_20220314111504_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>듣고 싶을까</t>
+          <t>MY BAG</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MSG워너비(M.O.M)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>듣고 싶을까</t>
+          <t>I NEVER DIE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>81,339</t>
+          <t>73,529</t>
         </is>
       </c>
     </row>
@@ -1977,27 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/67/172/10967172_20220525095420_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/29/030/11029030_20220812105653_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>I Ain't Worried</t>
+          <t>통화연결음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OneRepublic</t>
+          <t>보라미유</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>탑건 : 매버릭 (Top Gun: Maverick) (영화 OST)</t>
+          <t>통화연결음</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>27,583</t>
+          <t>12,647</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>183,215</t>
+          <t>183,274</t>
         </is>
       </c>
     </row>
@@ -2041,27 +2041,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/67/172/10967172_20220525095420_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>I Ain't Worried</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>OneRepublic</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>탑건 : 매버릭 (Top Gun: Maverick) (영화 OST)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>58,509</t>
+          <t>27,965</t>
         </is>
       </c>
     </row>
@@ -2073,27 +2073,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/79/150/10479150_20200918102847_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/09/232/10609232_20210517155130_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>Next Level</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dynamite (DayTime Version)</t>
+          <t>Next Level</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>440,416</t>
+          <t>250,746</t>
         </is>
       </c>
     </row>
@@ -2105,27 +2105,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/89/806/10989806_20220623153505_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Clink Clink (클링 클링)</t>
+          <t>Left and Right (Feat. Jung Kook of BTS)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WSG워너비 (오아시소)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>WSG워너비 1집</t>
+          <t>Left and Right (Feat. Jung Kook of BTS)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>26,023</t>
+          <t>82,009</t>
         </is>
       </c>
     </row>
@@ -2137,27 +2137,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/97/520/10997520_20220705113945_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/79/150/10479150_20200918102847_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>I LOVE U</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WINNER</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HOLIDAY</t>
+          <t>Dynamite (DayTime Version)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>44,749</t>
+          <t>440,406</t>
         </is>
       </c>
     </row>
@@ -2169,27 +2169,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/09/232/10609232_20210517155130_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/00/171/11000171_20220708163659_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Next Level</t>
+          <t>Clink Clink (클링 클링)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>WSG워너비 (오아시소)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Next Level</t>
+          <t>WSG워너비 1집</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>250,700</t>
+          <t>26,048</t>
         </is>
       </c>
     </row>
@@ -2201,27 +2201,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/29/030/11029030_20220812105653_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/16/399/10716399_20210916173429_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>통화연결음</t>
+          <t>너를 생각해</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>보라미유</t>
+          <t>주시크 (Joosiq)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>통화연결음</t>
+          <t>너를 생각해</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11,826</t>
+          <t>137,110</t>
         </is>
       </c>
     </row>
@@ -2233,27 +2233,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/16/399/10716399_20210916173429_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/97/520/10997520_20220705113945_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>너를 생각해</t>
+          <t>I LOVE U</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>주시크 (Joosiq)</t>
+          <t>WINNER</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>너를 생각해</t>
+          <t>HOLIDAY</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>137,038</t>
+          <t>44,970</t>
         </is>
       </c>
     </row>
@@ -2265,27 +2265,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/89/806/10989806_20220623153505_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Left and Right (Feat. Jung Kook of BTS)</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Left and Right (Feat. Jung Kook of BTS)</t>
+          <t>IM HERO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>81,747</t>
+          <t>58,593</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>126,627</t>
+          <t>126,765</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>200,587</t>
+          <t>200,681</t>
         </is>
       </c>
     </row>
@@ -2361,27 +2361,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/80/018/10980018_20220610121447_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/012/86/252/1286252_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>고백하는 취한밤에 (Prod. 2soo)</t>
+          <t>내 손을 잡아</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>고백하는 취한밤에</t>
+          <t>최고의 사랑 OST Part.4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>27,175</t>
+          <t>198,223</t>
         </is>
       </c>
     </row>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/08/450/11008450_20220719111811_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/80/018/10980018_20220610121447_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BEAUTIFUL MONSTER</t>
+          <t>고백하는 취한밤에 (Prod. 2soo)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>STAYC(스테이씨)</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WE NEED LOVE</t>
+          <t>고백하는 취한밤에</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>34,094</t>
+          <t>27,300</t>
         </is>
       </c>
     </row>
@@ -2425,27 +2425,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/27/816/10827816_20211229143632_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/38/275/10638275_20210625172521_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>바라만 본다</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>MSG워너비(M.O.M)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>조각집</t>
+          <t>MSG워너비 1집</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>154,010</t>
+          <t>180,710</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2457,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/38/275/10638275_20210625172521_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/27/816/10827816_20211229143632_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>바라만 본다</t>
+          <t>드라마</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MSG워너비(M.O.M)</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MSG워너비 1집</t>
+          <t>조각집</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>180,677</t>
+          <t>154,169</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>400,632</t>
+          <t>400,691</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>211,599</t>
+          <t>211,623</t>
         </is>
       </c>
     </row>
@@ -2553,27 +2553,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/55/743/10955743_20220516141152_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/12/319/10412319_20200403103006_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>팡파레</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Season Note</t>
+          <t>내일은 미스터트롯 우승자 특전곡</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>33,234</t>
+          <t>158,108</t>
         </is>
       </c>
     </row>
@@ -2585,27 +2585,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/012/86/252/1286252_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/08/450/11008450_20220719111811_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>내 손을 잡아</t>
+          <t>BEAUTIFUL MONSTER</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>STAYC(스테이씨)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>최고의 사랑 OST Part.4</t>
+          <t>WE NEED LOVE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>198,179</t>
+          <t>34,361</t>
         </is>
       </c>
     </row>
@@ -2617,27 +2617,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/12/319/10412319_20200403103006_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/55/743/10955743_20220516141152_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>팡파레</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>내일은 미스터트롯 우승자 특전곡</t>
+          <t>Season Note</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>158,029</t>
+          <t>33,340</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>277,067</t>
+          <t>277,069</t>
         </is>
       </c>
     </row>
@@ -2681,27 +2681,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/79/636/10979636_20220609175418_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/47/520/10447520_20200619123343_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yet To Come</t>
+          <t>OHAYO MY NIGHT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>디핵 (D-Hack)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Proof</t>
+          <t>OHAYO MY NIGHT</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>112,789</t>
+          <t>193,159</t>
         </is>
       </c>
     </row>
@@ -2713,27 +2713,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/22/231/10922231_20220527120653_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/105/80/103/10580103_20211008114642_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>Off My Face</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SEVENTEEN 4th Album 'Face the Sun'</t>
+          <t>Justice (The Complete Edition)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>85,348</t>
+          <t>133,445</t>
         </is>
       </c>
     </row>
@@ -2745,27 +2745,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/104/47/520/10447520_20200619123343_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/79/636/10979636_20220609175418_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>OHAYO MY NIGHT</t>
+          <t>Yet To Come</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>디핵 (D-Hack)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OHAYO MY NIGHT</t>
+          <t>Proof</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>193,108</t>
+          <t>112,844</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/43/453/10743453_20211018165252_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/22/231/10922231_20220527120653_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>strawberry moon</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>세븐틴</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>strawberry moon</t>
+          <t>SEVENTEEN 4th Album 'Face the Sun'</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>203,198</t>
+          <t>85,538</t>
         </is>
       </c>
     </row>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/23/839/11023839_20220805160725_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/57/681/10857681_20220204162442_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>눈을 감으면</t>
+          <t>언제나 사랑해</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>WSG워너비</t>
+          <t>케이시 (Kassy)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>눈을 감으면</t>
+          <t>조영수 리메이크 프로젝트 Part.2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>14,616</t>
+          <t>59,575</t>
         </is>
       </c>
     </row>
@@ -2841,27 +2841,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/108/57/681/10857681_20220204162442_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/43/453/10743453_20211018165252_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>언제나 사랑해</t>
+          <t>strawberry moon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>케이시 (Kassy)</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>조영수 리메이크 프로젝트 Part.2</t>
+          <t>strawberry moon</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>59,498</t>
+          <t>203,275</t>
         </is>
       </c>
     </row>
@@ -2873,27 +2873,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/84/974/10784974_20211119152051_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>BE'O (비오)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>쇼미더머니 10 Episode 3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>47,547</t>
+          <t>183,002</t>
         </is>
       </c>
     </row>
@@ -2905,27 +2905,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/01/072/11001072_20220727122138_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/23/839/11023839_20220805160725_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sparkling</t>
+          <t>눈을 감으면</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>청하</t>
+          <t>WSG워너비</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bare&amp;Rare Pt.1</t>
+          <t>눈을 감으면</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>20,253</t>
+          <t>14,793</t>
         </is>
       </c>
     </row>
@@ -2937,27 +2937,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/11/391/11011391_20220721151316_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/01/072/11001072_20220727122138_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>사랑이야</t>
+          <t>Sparkling</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>케이시 (Kassy)</t>
+          <t>청하</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>사랑이야</t>
+          <t>Bare&amp;Rare Pt.1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>16,982</t>
+          <t>20,389</t>
         </is>
       </c>
     </row>
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/105/80/103/10580103_20211008114642_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/110/11/391/11011391_20220721151316_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Off My Face</t>
+          <t>사랑이야</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>케이시 (Kassy)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Justice (The Complete Edition)</t>
+          <t>사랑이야</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>133,305</t>
+          <t>17,107</t>
         </is>
       </c>
     </row>
@@ -3001,27 +3001,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/84/974/10784974_20211119152051_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/48/182/10648182_20210709104950_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
+          <t>Permission to Dance</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>BE'O (비오)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>쇼미더머니 10 Episode 3</t>
+          <t>Butter / Permission to Dance</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>182,968</t>
+          <t>212,196</t>
         </is>
       </c>
     </row>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/48/182/10648182_20210709104950_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/54/134/10954134_20220513160759_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Permission to Dance</t>
+          <t>미친 것처럼</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>V.O.S</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Butter / Permission to Dance</t>
+          <t>아픔을 말하는</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>212,177</t>
+          <t>24,309</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/54/134/10954134_20220513160759_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>미친 것처럼</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>V.O.S</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>아픔을 말하는</t>
+          <t>IM HERO</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>24,214</t>
+          <t>47,618</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>323,464</t>
+          <t>323,470</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>19,341</t>
+          <t>19,438</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>561,429</t>
+          <t>561,257</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>296,550</t>
+          <t>296,559</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>59,042</t>
+          <t>59,230</t>
         </is>
       </c>
     </row>
@@ -3257,27 +3257,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm/album/images/022/10/557/2210557_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/105/54/246/10554246_20210325161233_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>스물다섯, 스물하나</t>
+          <t>라일락</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>자우림</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Goodbye, grief.</t>
+          <t>IU 5th Album 'LILAC'</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>206,303</t>
+          <t>244,973</t>
         </is>
       </c>
     </row>
@@ -3289,27 +3289,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/105/54/246/10554246_20210325161233_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>라일락</t>
+          <t>아버지</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>IU 5th Album 'LILAC'</t>
+          <t>IM HERO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>244,958</t>
+          <t>41,476</t>
         </is>
       </c>
     </row>
@@ -3321,27 +3321,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/20/913/10720913_20210923173742_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>아버지</t>
+          <t>My Universe</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>My Universe</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>41,435</t>
+          <t>166,141</t>
         </is>
       </c>
     </row>
@@ -3353,27 +3353,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/20/913/10720913_20210923173742_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm/album/images/022/10/557/2210557_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>My Universe</t>
+          <t>스물다섯, 스물하나</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>자우림</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>My Universe</t>
+          <t>Goodbye, grief.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>166,111</t>
+          <t>206,379</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>60,555</t>
+          <t>60,608</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>40,068</t>
+          <t>40,109</t>
         </is>
       </c>
     </row>
@@ -3449,27 +3449,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/18/269/10918269_20220413101153_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/01/149/10601149_20210430171555_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ZOOM</t>
+          <t>문득</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>제시 (Jessi)</t>
+          <t>BE'O (비오)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ZOOM</t>
+          <t>Bipolar</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>48,128</t>
+          <t>116,532</t>
         </is>
       </c>
     </row>
@@ -3481,27 +3481,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/31/792/10731792_20211005145407_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/18/269/10918269_20220413101153_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Savage</t>
+          <t>ZOOM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>제시 (Jessi)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Savage - The 1st Mini Album</t>
+          <t>ZOOM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>152,146</t>
+          <t>48,154</t>
         </is>
       </c>
     </row>
@@ -3513,27 +3513,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/106/01/149/10601149_20210430171555_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/107/31/792/10731792_20211005145407_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>문득</t>
+          <t>Savage</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>BE'O (비오)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Bipolar</t>
+          <t>Savage - The 1st Mini Album</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>116,466</t>
+          <t>152,156</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>19,230</t>
+          <t>19,722</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>39,342</t>
+          <t>39,369</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>39,892</t>
+          <t>39,926</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://cdnimg.melon.co.kr/cm2/album/images/103/46/650/10346650_500.jpg/melon/resize/120/quality/80/optimize</t>
+          <t>https://cdnimg.melon.co.kr/cm2/album/images/109/23/444/10923444_20220502140600_500.jpg/melon/resize/120/quality/80/optimize</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Blueming</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Love poem</t>
+          <t>IM HERO</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>342,597</t>
+          <t>39,446</t>
         </is>
       </c>
     </row>
